--- a/manual/(5) Release/Program_Release.xlsx
+++ b/manual/(5) Release/Program_Release.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Google\webcoop_other\manual\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\(5) Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A656D-6E87-4924-BC70-A92F96D3106E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193EBEA-E282-40B1-ABC9-28596AC8AE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t>#stop the app servers</t>
   </si>
@@ -459,9 +459,6 @@
     <t>sudo rm -rf /home/ubuntu/temp/Webcoop/upload</t>
   </si>
   <si>
-    <t>git clone https://github.com/AllianceWebcoop/webcoop_source.git /home/ubuntu/temp/Webcoop/release</t>
-  </si>
-  <si>
     <t>APP1="centos@13.228.36.174"</t>
   </si>
   <si>
@@ -498,15 +495,6 @@
     <t>#!/bin/bash</t>
   </si>
   <si>
-    <t>BACKUP_DIR="/home/ubuntu/temp/Webcoop/backup"</t>
-  </si>
-  <si>
-    <t>SOURCE_DIR="/home/ubuntu/temp/Webcoop/release"</t>
-  </si>
-  <si>
-    <t>TEMP_DIR="/home/ubuntu/temp/Webcoop/upload"</t>
-  </si>
-  <si>
     <t>#backup first</t>
   </si>
   <si>
@@ -531,15 +519,6 @@
     <t>ssh $APP1 -i ~/MyCoopApp_KP.pem "rm -rf /opt/webcoop/data/webcoop/*"</t>
   </si>
   <si>
-    <t>rsync -avz -e "ssh -i ~/MyCoopApp_KP.pem" $TEMP_DIR/* $APP1:/opt/webcoop/data/webcoop/</t>
-  </si>
-  <si>
-    <t>*avoid rejection for big files</t>
-  </si>
-  <si>
-    <t>*If error=</t>
-  </si>
-  <si>
     <t>rsync -avz --bwlimit=150 -e "ssh -i ~/MyCoopApp_KP.pem" $TEMP_DIR/* $APP1:/opt/webcoop/data/webcoop/</t>
   </si>
   <si>
@@ -549,9 +528,6 @@
     <t>5. rename backup folder for keeping</t>
   </si>
   <si>
-    <t>mv /home/ubuntu/temp/Webcoop/backup  /home/ubuntu/temp/Webcoop/backup_20200602</t>
-  </si>
-  <si>
     <t>6 change back aws security group setting</t>
   </si>
   <si>
@@ -574,6 +550,30 @@
   </si>
   <si>
     <t>8 .login by admin user in the target db , and install or update the  module</t>
+  </si>
+  <si>
+    <t>sudo rm -rf /home/ubuntu/release/Webcoop/release</t>
+  </si>
+  <si>
+    <t>sudo rm -rf /home/ubuntu/release/Webcoop/backup</t>
+  </si>
+  <si>
+    <t>sudo rm -rf /home/ubuntu/release/Webcoop/upload</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/jeromecueco/webcoop_source.git /home/ubuntu/release/Webcoop/release</t>
+  </si>
+  <si>
+    <t>BACKUP_DIR="/home/ubuntu/release/Webcoop/backup"</t>
+  </si>
+  <si>
+    <t>SOURCE_DIR="/home/ubuntu/release/Webcoop/release"</t>
+  </si>
+  <si>
+    <t>TEMP_DIR="/home/ubuntu/release/Webcoop/upload"</t>
+  </si>
+  <si>
+    <t>mv /home/ubuntu/release/Webcoop/backup  /home/ubuntu/release/Webcoop/backup_test</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAEA2F5-6CB9-4C1D-B786-B071B2B8FE0A}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1852,7 +1852,7 @@
     <row r="3" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1922,7 +1922,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1940,7 +1940,7 @@
     <row r="8" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1958,7 +1958,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2010,7 +2010,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2053,7 +2053,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2064,7 +2064,7 @@
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2083,7 +2083,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2116,7 +2116,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2135,7 +2135,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2202,7 +2202,7 @@
     <row r="23" spans="1:14">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2220,7 +2220,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2238,7 +2238,7 @@
     <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2256,7 +2256,7 @@
     <row r="26" spans="1:14">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2274,7 +2274,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2324,7 +2324,7 @@
     <row r="30" spans="1:14">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2342,7 +2342,7 @@
     <row r="31" spans="1:14">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2376,7 +2376,7 @@
     <row r="33" spans="1:14">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2394,7 +2394,7 @@
     <row r="34" spans="1:14">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2412,7 +2412,7 @@
     <row r="35" spans="1:14">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2464,7 +2464,7 @@
     <row r="38" spans="1:14">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2514,7 +2514,7 @@
     <row r="41" spans="1:14">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2532,7 +2532,7 @@
     <row r="42" spans="1:14">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2549,9 +2549,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2567,9 +2565,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2580,15 +2576,13 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2640,7 +2634,7 @@
     <row r="48" spans="1:14">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2705,7 +2699,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2740,7 +2734,7 @@
     <row r="54" spans="1:14">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2773,7 +2767,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2792,7 +2786,7 @@
     <row r="57" spans="1:14">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2811,7 +2805,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2828,7 +2822,7 @@
     <row r="59" spans="1:14">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2877,7 +2871,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2896,7 +2890,7 @@
     <row r="63" spans="1:14">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2914,7 +2908,7 @@
     <row r="64" spans="1:14">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2932,7 +2926,7 @@
     <row r="65" spans="1:14">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2950,7 +2944,7 @@
     <row r="66" spans="1:14">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2999,7 +2993,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3385,5 +3379,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manual/(5) Release/Program_Release.xlsx
+++ b/manual/(5) Release/Program_Release.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\(5) Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193EBEA-E282-40B1-ABC9-28596AC8AE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95575B75-150A-4BDD-AFE7-05E4AF03677A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
   <si>
     <t>#stop the app servers</t>
   </si>
@@ -465,9 +465,6 @@
     <t>0. Prepare key in developers PC</t>
   </si>
   <si>
-    <t>Locate [MyCoopApp_KP.pem] in home directory. (if you place it in other folder , please change part of script of #4 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Prepare environment in developers PC </t>
   </si>
   <si>
@@ -574,6 +571,12 @@
   </si>
   <si>
     <t>mv /home/ubuntu/release/Webcoop/backup  /home/ubuntu/release/Webcoop/backup_test</t>
+  </si>
+  <si>
+    <t>Locate [MyCoopApp_KP.pem] in home directory ex. (/home/ubuntu. )</t>
+  </si>
+  <si>
+    <t>Open terminal and type "chmod 600 MyCoopApp_KP.pem"</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAEA2F5-6CB9-4C1D-B786-B071B2B8FE0A}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1852,7 +1855,7 @@
     <row r="3" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1869,7 +1872,9 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1883,29 +1888,12 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1"/>
     <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1922,7 +1910,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1940,7 +1928,7 @@
     <row r="8" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1958,7 +1946,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1975,7 +1963,9 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1990,9 +1980,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2008,10 +1996,10 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2027,7 +2015,9 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2042,9 +2032,7 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2052,9 +2040,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2062,17 +2048,19 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2081,10 +2069,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="B16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2100,7 +2088,9 @@
     <row r="17" spans="1:14">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2115,9 +2105,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2133,10 +2121,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2152,7 +2140,9 @@
     <row r="20" spans="1:14">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2166,9 +2156,7 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2184,7 +2172,9 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2201,9 +2191,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2220,7 +2208,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2238,7 +2226,7 @@
     <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2256,7 +2244,7 @@
     <row r="26" spans="1:14">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2274,7 +2262,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2291,7 +2279,9 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2323,9 +2313,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2342,7 +2330,7 @@
     <row r="31" spans="1:14">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2359,7 +2347,9 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2375,9 +2365,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2394,7 +2382,7 @@
     <row r="34" spans="1:14">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2412,7 +2400,7 @@
     <row r="35" spans="1:14">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2429,7 +2417,9 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2445,9 +2435,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2464,7 +2452,7 @@
     <row r="38" spans="1:14">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2481,7 +2469,9 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2513,9 +2503,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2532,7 +2520,7 @@
     <row r="42" spans="1:14">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2549,7 +2537,9 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2581,9 +2571,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2599,7 +2587,9 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2615,9 +2605,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2634,7 +2622,7 @@
     <row r="48" spans="1:14">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2651,7 +2639,9 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2698,9 +2688,7 @@
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2716,7 +2704,9 @@
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2733,9 +2723,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2751,7 +2739,9 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2766,9 +2756,7 @@
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2784,10 +2772,10 @@
       <c r="N56" s="4"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="A57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2803,10 +2791,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="B58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2821,10 +2809,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2839,7 +2827,9 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2870,9 +2860,7 @@
       <c r="N61" s="4"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2888,10 +2876,10 @@
       <c r="N62" s="4"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="A63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2908,7 +2896,7 @@
     <row r="64" spans="1:14">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2926,7 +2914,7 @@
     <row r="65" spans="1:14">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2944,7 +2932,7 @@
     <row r="66" spans="1:14">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2961,7 +2949,9 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2992,9 +2982,7 @@
       <c r="N68" s="4"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3010,7 +2998,9 @@
       <c r="N69" s="4"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3377,6 +3367,22 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
